--- a/Documents/Transmission16x16.xlsx
+++ b/Documents/Transmission16x16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="0" windowWidth="27345" windowHeight="14820"/>
+    <workbookView xWindow="4365" yWindow="0" windowWidth="27345" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,28 +53,28 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>1H</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>4H</t>
   </si>
 </sst>
 </file>
@@ -184,36 +184,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
@@ -221,6 +215,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -264,14 +264,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I6" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="Column1" dataDxfId="13"/>
-    <tableColumn id="2" name="1"/>
-    <tableColumn id="3" name="2"/>
-    <tableColumn id="4" name="3" dataDxfId="12"/>
-    <tableColumn id="5" name="4" dataDxfId="11"/>
-    <tableColumn id="6" name="12"/>
-    <tableColumn id="7" name="23"/>
-    <tableColumn id="8" name="34"/>
-    <tableColumn id="9" name="45"/>
+    <tableColumn id="2" name="1L"/>
+    <tableColumn id="3" name="2L"/>
+    <tableColumn id="4" name="3L" dataDxfId="12"/>
+    <tableColumn id="5" name="4L" dataDxfId="11"/>
+    <tableColumn id="6" name="1H"/>
+    <tableColumn id="7" name="2H"/>
+    <tableColumn id="8" name="3H"/>
+    <tableColumn id="9" name="4H"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -281,28 +281,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A9:I13" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="Column1" dataDxfId="10"/>
-    <tableColumn id="2" name="1" dataDxfId="0">
-      <calculatedColumnFormula>IF(ISNUMBER(B3),B3,Table2[[#This Row],[12]]*$L$9)</calculatedColumnFormula>
+    <tableColumn id="2" name="1L" dataDxfId="9">
+      <calculatedColumnFormula>IF(ISNUMBER(B3),B3,Table2[[#This Row],[1H]]*$L$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="2" dataDxfId="9">
-      <calculatedColumnFormula>IF(ISNUMBER(C3),C3,Table2[[#This Row],[23]]*$L$9)</calculatedColumnFormula>
+    <tableColumn id="3" name="2L" dataDxfId="8">
+      <calculatedColumnFormula>IF(ISNUMBER(C3),C3,Table2[[#This Row],[2H]]*$L$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="3" dataDxfId="8">
-      <calculatedColumnFormula>IF(ISNUMBER(D3),D3,Table2[[#This Row],[34]]*$L$9)</calculatedColumnFormula>
+    <tableColumn id="4" name="3L" dataDxfId="7">
+      <calculatedColumnFormula>IF(ISNUMBER(D3),D3,Table2[[#This Row],[3H]]*$L$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="4" dataDxfId="7">
-      <calculatedColumnFormula>IF(ISNUMBER(E3),E3,Table2[[#This Row],[45]]*$L$9)</calculatedColumnFormula>
+    <tableColumn id="5" name="4L" dataDxfId="6">
+      <calculatedColumnFormula>IF(ISNUMBER(E3),E3,Table2[[#This Row],[4H]]*$L$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="12" dataDxfId="1">
+    <tableColumn id="6" name="1H" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNUMBER(F3),F3,B3/$L$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="23" dataDxfId="6">
+    <tableColumn id="7" name="2H" dataDxfId="4">
       <calculatedColumnFormula>IF(ISNUMBER(G3),G3,C3/$L$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="34" dataDxfId="5">
+    <tableColumn id="8" name="3H" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(H3),H3,D3/$L$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="45" dataDxfId="4">
+    <tableColumn id="9" name="4H" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(I3),I3,E3/$L$9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -311,9 +311,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J9:J13" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J9:J13" totalsRowShown="0" dataDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" name="ratio" dataDxfId="3">
+    <tableColumn id="1" name="ratio" dataDxfId="0">
       <calculatedColumnFormula>SUM(F10:I10)/SUM(F$13:I$13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -587,7 +587,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,37 +598,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -644,105 +644,79 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="F3">
-        <v>5.9</v>
-      </c>
-      <c r="G3">
-        <v>10.6</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="F4">
-        <v>7.1</v>
-      </c>
-      <c r="G4">
-        <v>12.6</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>8.5</v>
-      </c>
-      <c r="G5">
-        <v>15.1</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>5.6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9.1999999999999993</v>
-      </c>
+        <v>11.5</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>15.6</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>10.199999999999999</v>
+        <v>21.9</v>
+      </c>
+      <c r="G6">
+        <v>26.9</v>
+      </c>
+      <c r="H6">
+        <v>33.6</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -756,12 +730,12 @@
       <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f>AVERAGE(K10:N13)</f>
-        <v>0.30463576158940397</v>
+        <v>0.42625464684014869</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -769,55 +743,55 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <f>IF(ISNUMBER(B3),B3,Table2[[#This Row],[12]]*$L$9)</f>
-        <v>1.7973509933774836</v>
+        <f>IF(ISNUMBER(B3),B3,Table2[[#This Row],[1H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <f>IF(ISNUMBER(C3),C3,Table2[[#This Row],[23]]*$L$9)</f>
-        <v>3.2291390728476821</v>
+        <f>IF(ISNUMBER(C3),C3,Table2[[#This Row],[2H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f>IF(ISNUMBER(D3),D3,Table2[[#This Row],[34]]*$L$9)</f>
-        <v>5.4</v>
+        <f>IF(ISNUMBER(D3),D3,Table2[[#This Row],[3H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(ISNUMBER(E3),E3,Table2[[#This Row],[45]]*$L$9)</f>
-        <v>9.1</v>
+        <f>IF(ISNUMBER(E3),E3,Table2[[#This Row],[4H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ref="F10:F13" si="0">IF(ISNUMBER(F3),F3,B3/$L$9)</f>
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ref="G10:G13" si="1">IF(ISNUMBER(G3),G3,C3/$L$9)</f>
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" ref="H10:H13" si="2">IF(ISNUMBER(H3),H3,D3/$L$9)</f>
-        <v>17.72608695652174</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" ref="I10:I13" si="3">IF(ISNUMBER(I3),I3,E3/$L$9)</f>
-        <v>29.871739130434783</v>
-      </c>
-      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" ref="J10:J11" si="4">SUM(F10:I10)/SUM(F$13:I$13)</f>
-        <v>0.58275357735789401</v>
-      </c>
-      <c r="K10" s="9" t="str">
-        <f>IF(AND(ISNUMBER(B3),ISNUMBER(F3)),B3/F3,"")</f>
-        <v/>
-      </c>
-      <c r="L10" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C3),ISNUMBER(G3)),C3/G3,"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="9" t="str">
-        <f>IF(AND(ISNUMBER(D3),ISNUMBER(H3)),D3/H3,"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="9" t="str">
-        <f>IF(AND(ISNUMBER(E3),ISNUMBER(I3)),E3/I3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="8" t="str">
+        <f t="shared" ref="K10:N13" si="5">IF(AND(ISNUMBER(B3),ISNUMBER(F3)),B3/F3,"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M10" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N10" s="8" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -826,55 +800,55 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <f>IF(ISNUMBER(B4),B4,Table2[[#This Row],[12]]*$L$9)</f>
-        <v>2.1629139072847683</v>
+        <f>IF(ISNUMBER(B4),B4,Table2[[#This Row],[1H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <f>IF(ISNUMBER(C4),C4,Table2[[#This Row],[23]]*$L$9)</f>
-        <v>3.83841059602649</v>
+        <f>IF(ISNUMBER(C4),C4,Table2[[#This Row],[2H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f>IF(ISNUMBER(D4),D4,Table2[[#This Row],[34]]*$L$9)</f>
-        <v>6.4</v>
+        <f>IF(ISNUMBER(D4),D4,Table2[[#This Row],[3H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(ISNUMBER(E4),E4,Table2[[#This Row],[45]]*$L$9)</f>
-        <v>10.9</v>
+        <f>IF(ISNUMBER(E4),E4,Table2[[#This Row],[4H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>21.008695652173913</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>35.780434782608694</v>
-      </c>
-      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="4"/>
-        <v>0.69541070440351016</v>
-      </c>
-      <c r="K11" s="9" t="str">
-        <f>IF(AND(ISNUMBER(B4),ISNUMBER(F4)),B4/F4,"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C4),ISNUMBER(G4)),C4/G4,"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="9" t="str">
-        <f>IF(AND(ISNUMBER(D4),ISNUMBER(H4)),D4/H4,"")</f>
-        <v/>
-      </c>
-      <c r="N11" s="9" t="str">
-        <f>IF(AND(ISNUMBER(E4),ISNUMBER(I4)),E4/I4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M11" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N11" s="8" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -883,55 +857,55 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <f>IF(ISNUMBER(B5),B5,Table2[[#This Row],[12]]*$L$9)</f>
-        <v>2.5894039735099339</v>
+        <f>IF(ISNUMBER(B5),B5,Table2[[#This Row],[1H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <f>IF(ISNUMBER(C5),C5,Table2[[#This Row],[23]]*$L$9)</f>
-        <v>4.5999999999999996</v>
+        <f>IF(ISNUMBER(C5),C5,Table2[[#This Row],[2H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f>IF(ISNUMBER(D5),D5,Table2[[#This Row],[34]]*$L$9)</f>
-        <v>7.7</v>
+        <f>IF(ISNUMBER(D5),D5,Table2[[#This Row],[3H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(ISNUMBER(E5),E5,Table2[[#This Row],[45]]*$L$9)</f>
-        <v>13</v>
+        <f>IF(ISNUMBER(E5),E5,Table2[[#This Row],[4H]]*$L$9)</f>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>25.276086956521741</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="3"/>
-        <v>42.673913043478258</v>
-      </c>
-      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <f>SUM(F12:I12)/SUM(F$13:I$13)</f>
-        <v>0.83233852478456805</v>
-      </c>
-      <c r="K12" s="9" t="str">
-        <f>IF(AND(ISNUMBER(B5),ISNUMBER(F5)),B5/F5,"")</f>
-        <v/>
-      </c>
-      <c r="L12" s="9">
-        <f>IF(AND(ISNUMBER(C5),ISNUMBER(G5)),C5/G5,"")</f>
-        <v>0.30463576158940397</v>
-      </c>
-      <c r="M12" s="9" t="str">
-        <f>IF(AND(ISNUMBER(D5),ISNUMBER(H5)),D5/H5,"")</f>
-        <v/>
-      </c>
-      <c r="N12" s="9" t="str">
-        <f>IF(AND(ISNUMBER(E5),ISNUMBER(I5)),E5/I5,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M12" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N12" s="8" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -940,56 +914,55 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <f>IF(ISNUMBER(B6),B6,Table2[[#This Row],[12]]*$L$9)</f>
-        <v>3.1072847682119202</v>
+        <f>IF(ISNUMBER(B6),B6,Table2[[#This Row],[1H]]*$L$9)</f>
+        <v>9.3349767657992562</v>
       </c>
       <c r="C13" s="1">
-        <f>IF(ISNUMBER(C6),C6,Table2[[#This Row],[23]]*$L$9)</f>
-        <v>5.6</v>
+        <f>IF(ISNUMBER(C6),C6,Table2[[#This Row],[2H]]*$L$9)</f>
+        <v>11.5</v>
       </c>
       <c r="D13" s="1">
-        <f>IF(ISNUMBER(D6),D6,Table2[[#This Row],[34]]*$L$9)</f>
-        <v>9.1999999999999993</v>
+        <f>IF(ISNUMBER(D6),D6,Table2[[#This Row],[3H]]*$L$9)</f>
+        <v>14.279530669144981</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(ISNUMBER(E6),E6,Table2[[#This Row],[45]]*$L$9)</f>
-        <v>15.6</v>
+        <f>IF(ISNUMBER(E6),E6,Table2[[#This Row],[4H]]*$L$9)</f>
+        <v>17</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>18.382608695652173</v>
+        <v>26.9</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
-        <v>30.2</v>
+        <v>33.5</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>51.208695652173908</v>
-      </c>
-      <c r="J13" s="7">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6">
         <f>SUM(F13:I13)/SUM(F$13:I$13)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="9" t="str">
-        <f>IF(AND(ISNUMBER(B6),ISNUMBER(F6)),B6/F6,"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="9" t="str">
-        <f>IF(AND(ISNUMBER(C6),ISNUMBER(G6)),C6/G6,"")</f>
-        <v/>
-      </c>
-      <c r="M13" s="9" t="str">
-        <f>IF(AND(ISNUMBER(D6),ISNUMBER(H6)),D6/H6,"")</f>
-        <v/>
-      </c>
-      <c r="N13" s="9" t="str">
-        <f>IF(AND(ISNUMBER(E6),ISNUMBER(I6)),E6/I6,"")</f>
-        <v/>
+      <c r="K13" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="5"/>
+        <v>0.42750929368029744</v>
+      </c>
+      <c r="M13" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="5"/>
+        <v>0.42499999999999999</v>
       </c>
     </row>
   </sheetData>
